--- a/src/assets/extra/MAWB_Upload_Format.xlsx
+++ b/src/assets/extra/MAWB_Upload_Format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myWorkStarted\tarifftales-spa-app\src\assets\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F46E9B-A89E-4476-ADB7-6BF15D04D605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDC521D-41F3-4C74-8957-1110E1E18E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="49">
   <si>
     <t>Commodity</t>
   </si>
@@ -110,9 +110,6 @@
     <t>INR</t>
   </si>
   <si>
-    <t>6E FLTS</t>
-  </si>
-  <si>
     <t>Origin_Air_Port</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>Via_Air_Port</t>
   </si>
   <si>
-    <t>FLTS BETWEEN 9:01 TO 01:00</t>
-  </si>
-  <si>
     <t>PRIME</t>
   </si>
   <si>
@@ -149,9 +143,6 @@
     <t>HYD</t>
   </si>
   <si>
-    <t>1,2,3,4</t>
-  </si>
-  <si>
     <t>HSN1</t>
   </si>
   <si>
@@ -165,13 +156,40 @@
   </si>
   <si>
     <t>final check</t>
+  </si>
+  <si>
+    <t>MON,TUE,WED,THU,FRI,SAT,SUN</t>
+  </si>
+  <si>
+    <t>Uk 347</t>
+  </si>
+  <si>
+    <t>Before 07:40</t>
+  </si>
+  <si>
+    <t>Uk 345</t>
+  </si>
+  <si>
+    <t>For All Flights departed between 09:01 TO 23:59 HRS</t>
+  </si>
+  <si>
+    <t>For All Flights between 15:00 HRS TILL 23:59 HRS</t>
+  </si>
+  <si>
+    <t>07:30</t>
+  </si>
+  <si>
+    <t>09:01 TO 23:59 HRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15:00 HRS - 23:59 HRS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -252,6 +270,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -300,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -333,6 +366,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
@@ -584,7 +623,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>8</v>
@@ -593,13 +632,13 @@
         <v>9</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>11</v>
@@ -632,7 +671,7 @@
         <v>14</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>17</v>
@@ -658,7 +697,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.6">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -670,37 +709,37 @@
         <v>38568</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H2" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J2" s="1">
         <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
@@ -736,7 +775,7 @@
     </row>
     <row r="3" spans="1:26" ht="15.6">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -748,37 +787,37 @@
         <v>38569</v>
       </c>
       <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H3" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J3" s="1">
         <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1" t="s">
@@ -814,7 +853,7 @@
     </row>
     <row r="4" spans="1:26" ht="15.6">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -826,37 +865,37 @@
         <v>38570</v>
       </c>
       <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H4" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J4" s="1">
         <v>27</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
@@ -892,7 +931,7 @@
     </row>
     <row r="5" spans="1:26" ht="15.6">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -904,37 +943,37 @@
         <v>38571</v>
       </c>
       <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H5" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J5" s="1">
         <v>27</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
@@ -970,7 +1009,7 @@
     </row>
     <row r="6" spans="1:26" ht="15.6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -982,37 +1021,37 @@
         <v>38572</v>
       </c>
       <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H6" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J6" s="1">
         <v>27</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
@@ -1048,7 +1087,7 @@
     </row>
     <row r="7" spans="1:26" ht="15.6">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1060,37 +1099,37 @@
         <v>38573</v>
       </c>
       <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H7" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J7" s="1">
         <v>27</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M7" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
@@ -1126,7 +1165,7 @@
     </row>
     <row r="8" spans="1:26" ht="15.6">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1138,37 +1177,37 @@
         <v>38574</v>
       </c>
       <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H8" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J8" s="1">
         <v>27</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M8" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
